--- a/LibMS/Data/data.xlsx
+++ b/LibMS/Data/data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Z Uni\Semester 06\BAD (babpm)\Group Project\LibMS\BADWeb-LibMS\LibMS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BF2A1180-D92A-41F2-80D1-8510DB5C9D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0939A029-4D5D-491A-B062-AD6027A316B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="486">
   <si>
     <t>id</t>
   </si>
@@ -1482,11 +1493,53 @@
   <si>
     <t>9781500000000</t>
   </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>oth</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>edu</t>
+  </si>
+  <si>
+    <t>cl</t>
+  </si>
+  <si>
+    <t>dit</t>
+  </si>
+  <si>
+    <t>kid</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>hor</t>
+  </si>
+  <si>
+    <t>sh</t>
+  </si>
+  <si>
+    <t>cb</t>
+  </si>
+  <si>
+    <t>com</t>
+  </si>
+  <si>
+    <t>nov</t>
+  </si>
+  <si>
+    <t>his</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1964,12 +2017,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -2325,21 +2377,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="7" max="7" width="29.44140625" customWidth="1"/>
     <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2370,11 +2422,14 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2408,8 +2463,11 @@
       <c r="K2" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2443,8 +2501,11 @@
       <c r="K3" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2478,8 +2539,11 @@
       <c r="K4" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2513,8 +2577,11 @@
       <c r="K5" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2548,8 +2615,11 @@
       <c r="K6" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2583,8 +2653,11 @@
       <c r="K7" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2618,8 +2691,11 @@
       <c r="K8" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2653,8 +2729,11 @@
       <c r="K9" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2688,8 +2767,11 @@
       <c r="K10" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -2723,8 +2805,11 @@
       <c r="K11" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -2758,8 +2843,11 @@
       <c r="K12" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -2793,8 +2881,11 @@
       <c r="K13" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2828,8 +2919,11 @@
       <c r="K14" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -2863,8 +2957,11 @@
       <c r="K15" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -2898,8 +2995,11 @@
       <c r="K16" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -2933,8 +3033,11 @@
       <c r="K17" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -2968,8 +3071,11 @@
       <c r="K18" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -3003,8 +3109,11 @@
       <c r="K19" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3038,8 +3147,11 @@
       <c r="K20" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3073,8 +3185,11 @@
       <c r="K21" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3108,8 +3223,11 @@
       <c r="K22" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3143,8 +3261,11 @@
       <c r="K23" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3178,8 +3299,11 @@
       <c r="K24" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3213,8 +3337,11 @@
       <c r="K25" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -3248,8 +3375,11 @@
       <c r="K26" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -3283,8 +3413,11 @@
       <c r="K27" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -3318,8 +3451,11 @@
       <c r="K28" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
@@ -3353,8 +3489,11 @@
       <c r="K29" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
@@ -3388,8 +3527,11 @@
       <c r="K30" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
@@ -3423,8 +3565,11 @@
       <c r="K31" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
@@ -3458,8 +3603,11 @@
       <c r="K32" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
@@ -3493,8 +3641,11 @@
       <c r="K33" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
@@ -3528,8 +3679,11 @@
       <c r="K34" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
@@ -3563,8 +3717,11 @@
       <c r="K35" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>36</v>
       </c>
@@ -3598,8 +3755,11 @@
       <c r="K36" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>37</v>
       </c>
@@ -3633,8 +3793,11 @@
       <c r="K37" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>38</v>
       </c>
@@ -3668,8 +3831,11 @@
       <c r="K38" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39</v>
       </c>
@@ -3703,8 +3869,11 @@
       <c r="K39" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -3738,8 +3907,11 @@
       <c r="K40" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>41</v>
       </c>
@@ -3773,8 +3945,11 @@
       <c r="K41" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
@@ -3808,8 +3983,11 @@
       <c r="K42" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
@@ -3843,8 +4021,11 @@
       <c r="K43" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>44</v>
       </c>
@@ -3878,8 +4059,11 @@
       <c r="K44" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>45</v>
       </c>
@@ -3913,8 +4097,11 @@
       <c r="K45" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L45" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>46</v>
       </c>
@@ -3948,8 +4135,11 @@
       <c r="K46" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L46" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>47</v>
       </c>
@@ -3983,8 +4173,11 @@
       <c r="K47" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L47" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>48</v>
       </c>
@@ -4018,8 +4211,11 @@
       <c r="K48" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L48" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>49</v>
       </c>
@@ -4053,8 +4249,11 @@
       <c r="K49" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L49" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>50</v>
       </c>
@@ -4088,8 +4287,11 @@
       <c r="K50" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L50" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>51</v>
       </c>
@@ -4123,8 +4325,11 @@
       <c r="K51" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L51" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>52</v>
       </c>
@@ -4158,8 +4363,11 @@
       <c r="K52" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L52" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>53</v>
       </c>
@@ -4193,8 +4401,11 @@
       <c r="K53" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L53" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>54</v>
       </c>
@@ -4228,8 +4439,11 @@
       <c r="K54" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L54" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>55</v>
       </c>
@@ -4263,8 +4477,11 @@
       <c r="K55" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L55" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>56</v>
       </c>
@@ -4298,8 +4515,11 @@
       <c r="K56" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L56" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>57</v>
       </c>
@@ -4333,8 +4553,11 @@
       <c r="K57" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L57" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>58</v>
       </c>
@@ -4368,8 +4591,11 @@
       <c r="K58" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L58" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>59</v>
       </c>
@@ -4403,8 +4629,11 @@
       <c r="K59" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L59" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>60</v>
       </c>
@@ -4438,8 +4667,11 @@
       <c r="K60" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L60" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>61</v>
       </c>
@@ -4473,8 +4705,11 @@
       <c r="K61" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L61" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>62</v>
       </c>
@@ -4508,8 +4743,11 @@
       <c r="K62" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L62" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>63</v>
       </c>
@@ -4543,8 +4781,11 @@
       <c r="K63" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L63" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>64</v>
       </c>
@@ -4578,8 +4819,11 @@
       <c r="K64" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L64" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>65</v>
       </c>
@@ -4613,8 +4857,11 @@
       <c r="K65" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L65" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>66</v>
       </c>
@@ -4648,8 +4895,11 @@
       <c r="K66" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L66" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>67</v>
       </c>
@@ -4683,8 +4933,11 @@
       <c r="K67" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L67" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>68</v>
       </c>
@@ -4718,8 +4971,11 @@
       <c r="K68" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L68" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>69</v>
       </c>
@@ -4753,8 +5009,11 @@
       <c r="K69" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L69" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>70</v>
       </c>
@@ -4788,8 +5047,11 @@
       <c r="K70" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L70" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>71</v>
       </c>
@@ -4823,8 +5085,11 @@
       <c r="K71" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L71" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>72</v>
       </c>
@@ -4858,8 +5123,11 @@
       <c r="K72" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L72" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>73</v>
       </c>
@@ -4893,8 +5161,11 @@
       <c r="K73" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L73" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>74</v>
       </c>
@@ -4928,8 +5199,11 @@
       <c r="K74" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L74" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>75</v>
       </c>
@@ -4963,8 +5237,11 @@
       <c r="K75" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L75" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>76</v>
       </c>
@@ -4998,8 +5275,11 @@
       <c r="K76" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L76" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>77</v>
       </c>
@@ -5033,8 +5313,11 @@
       <c r="K77" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L77" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>78</v>
       </c>
@@ -5068,8 +5351,11 @@
       <c r="K78" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L78" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>79</v>
       </c>
@@ -5103,8 +5389,11 @@
       <c r="K79" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L79" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -5138,8 +5427,11 @@
       <c r="K80" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L80" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>81</v>
       </c>
@@ -5173,8 +5465,11 @@
       <c r="K81" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L81" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>82</v>
       </c>
@@ -5208,8 +5503,11 @@
       <c r="K82" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L82" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>83</v>
       </c>
@@ -5243,8 +5541,11 @@
       <c r="K83" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L83" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>84</v>
       </c>
@@ -5278,8 +5579,11 @@
       <c r="K84" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L84" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>85</v>
       </c>
@@ -5313,8 +5617,11 @@
       <c r="K85" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L85" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>86</v>
       </c>
@@ -5348,8 +5655,11 @@
       <c r="K86" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L86" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>87</v>
       </c>
@@ -5383,8 +5693,11 @@
       <c r="K87" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L87" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>88</v>
       </c>
@@ -5418,8 +5731,11 @@
       <c r="K88" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L88" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>89</v>
       </c>
@@ -5453,8 +5769,11 @@
       <c r="K89" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L89" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>90</v>
       </c>
@@ -5488,8 +5807,11 @@
       <c r="K90" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L90" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>91</v>
       </c>
@@ -5523,8 +5845,11 @@
       <c r="K91" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L91" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>92</v>
       </c>
@@ -5558,8 +5883,11 @@
       <c r="K92" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L92" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>93</v>
       </c>
@@ -5593,8 +5921,11 @@
       <c r="K93" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L93" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>94</v>
       </c>
@@ -5628,8 +5959,11 @@
       <c r="K94" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L94" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>95</v>
       </c>
@@ -5663,8 +5997,11 @@
       <c r="K95" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L95" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>96</v>
       </c>
@@ -5698,8 +6035,11 @@
       <c r="K96" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L96" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>97</v>
       </c>
@@ -5733,8 +6073,11 @@
       <c r="K97" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L97" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>98</v>
       </c>
@@ -5768,8 +6111,11 @@
       <c r="K98" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L98" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>99</v>
       </c>
@@ -5803,8 +6149,11 @@
       <c r="K99" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L99" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>100</v>
       </c>
@@ -5838,8 +6187,11 @@
       <c r="K100" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L100" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>101</v>
       </c>
@@ -5873,8 +6225,11 @@
       <c r="K101" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L101" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>102</v>
       </c>
@@ -5908,8 +6263,11 @@
       <c r="K102" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L102" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>103</v>
       </c>
@@ -5942,6 +6300,9 @@
       </c>
       <c r="K103" t="s">
         <v>467</v>
+      </c>
+      <c r="L103" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
